--- a/SavedImages/OptimizeSce3_nfe_250000/DataResults/data/robustness_results/overall_scores.xlsx
+++ b/SavedImages/OptimizeSce3_nfe_250000/DataResults/data/robustness_results/overall_scores.xlsx
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.888</v>
+        <v>0.92</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0.999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.743</v>
+        <v>0.857</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.671</v>
+        <v>0.836</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -554,16 +554,16 @@
         <v>0.993</v>
       </c>
       <c r="K2" t="n">
-        <v>0.86</v>
+        <v>0.965</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.949</v>
+        <v>0.98</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.895</v>
+        <v>0.927</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.744</v>
+        <v>0.858</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.989</v>
+        <v>0.997</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.919</v>
+        <v>0.984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.679</v>
+        <v>0.835</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.888</v>
+        <v>0.9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.764</v>
+        <v>0.864</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.805</v>
+        <v>0.901</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.967</v>
+        <v>0.995</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.955</v>
+        <v>0.982</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.947</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.726</v>
+        <v>0.844</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.589</v>
+        <v>0.784</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.31</v>
+        <v>0.657</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.385</v>
+        <v>0.548</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.888</v>
+        <v>0.92</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.743</v>
+        <v>0.857</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.791</v>
+        <v>0.893</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.958</v>
+        <v>0.992</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.465</v>
+        <v>0.671</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.883</v>
+        <v>0.921</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.744</v>
+        <v>0.858</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.757</v>
+        <v>0.821</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.668</v>
+        <v>0.893</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.918</v>
+        <v>0.96</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.574</v>
+        <v>0.616</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>0.882</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.732</v>
+        <v>0.864</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.666</v>
+        <v>0.893</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.601</v>
+        <v>0.72</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.536</v>
+        <v>0.655</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.765</v>
+        <v>0.869</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.92</v>
+        <v>0.957</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.948</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.832</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.888</v>
+        <v>0.92</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.743</v>
+        <v>0.857</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.615</v>
+        <v>0.748</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.749</v>
+        <v>0.917</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.839</v>
+        <v>0.904</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.895</v>
+        <v>0.927</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.743</v>
+        <v>0.857</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.668</v>
+        <v>0.832</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0.999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.837</v>
+        <v>0.962</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.789</v>
+        <v>0.88</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.895</v>
+        <v>0.927</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.744</v>
+        <v>0.858</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.931</v>
+        <v>0.988</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.771</v>
+        <v>0.85</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.731</v>
+        <v>0.767</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.756</v>
+        <v>0.856</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.608</v>
+        <v>0.725</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.474</v>
+        <v>0.775</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.625</v>
+        <v>0.761</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.883</v>
+        <v>0.921</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.754</v>
+        <v>0.859</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.791</v>
+        <v>0.893</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.781</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.493</v>
+        <v>0.698</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.888</v>
+        <v>0.904</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.754</v>
+        <v>0.861</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.642</v>
+        <v>0.759</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.741</v>
+        <v>0.914</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.651</v>
+        <v>0.82</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.888</v>
+        <v>0.92</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.742</v>
+        <v>0.857</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.671</v>
+        <v>0.836</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.973</v>
+        <v>0.995</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.454</v>
+        <v>0.621</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.947</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.843</v>
+        <v>0.918</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.831</v>
+        <v>0.914</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.885</v>
+        <v>0.97</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.572</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.888</v>
+        <v>0.9</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.715</v>
+        <v>0.832</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.537</v>
+        <v>0.735</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.494</v>
+        <v>0.789</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.336</v>
+        <v>0.476</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.88</v>
+        <v>0.901</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.725</v>
+        <v>0.845</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.746</v>
+        <v>0.868</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.518</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.536</v>
+        <v>0.655</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.765</v>
+        <v>0.869</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.545</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.773</v>
+        <v>0.874</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
